--- a/results/mod2.lrecon.eff.MN.xlsx
+++ b/results/mod2.lrecon.eff.MN.xlsx
@@ -410,25 +410,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0599071275904034</v>
+        <v>0.0599079883512728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0297621030486411</v>
+        <v>0.02976201226039</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00157447751089712</v>
+        <v>0.00157551621346898</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11823977766991</v>
+        <v>0.118240460489077</v>
       </c>
       <c r="G2" t="n">
-        <v>2.01286607644948</v>
+        <v>2.01290113810631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.044128720238159</v>
+        <v>0.0441250308280822</v>
       </c>
     </row>
     <row r="3">
@@ -436,25 +436,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0337997274274268</v>
+        <v>-0.0338025630289212</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0679334496506697</v>
+        <v>0.0679332954346378</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.166946842088304</v>
+        <v>-0.16694937543193</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0993473872334508</v>
+        <v>0.0993442493740881</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.497541750069123</v>
+        <v>-0.497584620511226</v>
       </c>
       <c r="H3" t="n">
-        <v>0.618807069037471</v>
+        <v>0.618776845933054</v>
       </c>
     </row>
     <row r="4">
@@ -462,25 +462,25 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0291698503843772</v>
+        <v>-0.0291690106918689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0296970770052604</v>
+        <v>0.0296970350105271</v>
       </c>
       <c r="D4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.0873750517608001</v>
+        <v>-0.0873741297601271</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0290353509920457</v>
+        <v>0.0290361083763894</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.982246514672478</v>
+        <v>-0.982219628374648</v>
       </c>
       <c r="H4" t="n">
-        <v>0.325978417100532</v>
+        <v>0.325991659642538</v>
       </c>
     </row>
     <row r="5">
@@ -488,25 +488,25 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00306245022140061</v>
+        <v>0.00306358536951728</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0252862882009354</v>
+        <v>0.02528621086281</v>
       </c>
       <c r="D5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.046497763955133</v>
+        <v>-0.0464964772270757</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0526226643979342</v>
+        <v>0.0526236479661103</v>
       </c>
       <c r="G5" t="n">
-        <v>0.121111101679499</v>
+        <v>0.121156364080752</v>
       </c>
       <c r="H5" t="n">
-        <v>0.903603036037782</v>
+        <v>0.903567185855554</v>
       </c>
     </row>
   </sheetData>
